--- a/registered.xlsx
+++ b/registered.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masks</t>
   </si>
 </sst>
 </file>
@@ -143,17 +146,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -169,6 +173,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/registered.xlsx
+++ b/registered.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Masks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee</t>
   </si>
 </sst>
 </file>
@@ -146,18 +149,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -176,6 +180,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
